--- a/Análisis/Tabla de Métodos.xlsx
+++ b/Análisis/Tabla de Métodos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="132">
   <si>
     <t>R1 -Contratar entrenador</t>
   </si>
@@ -419,6 +419,15 @@
   </si>
   <si>
     <t>R14 - Mostrar Información en específico</t>
+  </si>
+  <si>
+    <t>R15 - Calcular precio en el mercado y nivel de los jugadores y entrenadores principales</t>
+  </si>
+  <si>
+    <t>marketPrice() : void</t>
+  </si>
+  <si>
+    <t>level() : void</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +583,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -659,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,196 +682,211 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L175"/>
+  <dimension ref="C1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,18 +1183,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1175,8 +1205,8 @@
       </c>
     </row>
     <row r="3" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="38"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1184,8 +1214,8 @@
       </c>
     </row>
     <row r="4" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="38"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1193,7 +1223,7 @@
       </c>
     </row>
     <row r="5" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="38"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1232,7 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="38"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1211,1551 +1241,1628 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="38"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="38"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="6"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
+      <c r="E19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="3:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="E20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="3:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="E21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="12"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="41"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
     </row>
     <row r="26" spans="3:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="12"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="23"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="23"/>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="23"/>
-      <c r="D31" s="25" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="3:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="23"/>
-      <c r="D32" s="43" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="23"/>
-      <c r="D33" s="43" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="23"/>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="60"/>
+      <c r="D34" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="23"/>
-      <c r="D35" s="43" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="44"/>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="47"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="54"/>
+      <c r="D40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="47"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="54"/>
+      <c r="D41" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="47"/>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="47"/>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="47"/>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="47"/>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="54"/>
+      <c r="D45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="47"/>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="54"/>
+      <c r="D46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="47"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="54"/>
+      <c r="D47" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="47"/>
-      <c r="D48" s="46" t="s">
+      <c r="C48" s="54"/>
+      <c r="D48" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="47"/>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="47"/>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="54"/>
+      <c r="D50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="47"/>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="54"/>
+      <c r="D51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="47"/>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="54"/>
+      <c r="D52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="47"/>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="54"/>
+      <c r="D53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="48"/>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="51"/>
-      <c r="D56" s="13" t="s">
+      <c r="C56" s="57"/>
+      <c r="D56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="51"/>
-      <c r="D57" s="50" t="s">
+      <c r="C57" s="57"/>
+      <c r="D57" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="51"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="57"/>
+      <c r="D58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="51"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="51"/>
-      <c r="D60" s="50" t="s">
+      <c r="C60" s="57"/>
+      <c r="D60" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="51"/>
-      <c r="D61" s="50" t="s">
+      <c r="C61" s="57"/>
+      <c r="D61" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="51"/>
-      <c r="D62" s="13" t="s">
+      <c r="C62" s="57"/>
+      <c r="D62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="51"/>
-      <c r="D63" s="13" t="s">
+      <c r="C63" s="57"/>
+      <c r="D63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="51"/>
-      <c r="D64" s="13" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="51"/>
-      <c r="D65" s="13" t="s">
+      <c r="C65" s="57"/>
+      <c r="D65" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="50" t="s">
+      <c r="E65" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="51"/>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="57"/>
+      <c r="D66" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="50" t="s">
+      <c r="E66" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="51"/>
-      <c r="D67" s="13" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="50" t="s">
+      <c r="E67" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="51"/>
-      <c r="D68" s="13" t="s">
+      <c r="C68" s="57"/>
+      <c r="D68" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="69" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="51"/>
-      <c r="D69" s="13" t="s">
+      <c r="C69" s="57"/>
+      <c r="D69" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="50" t="s">
+      <c r="E69" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="51"/>
-      <c r="D70" s="13" t="s">
+      <c r="C70" s="57"/>
+      <c r="D70" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="50" t="s">
+      <c r="E70" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="51"/>
-      <c r="D71" s="63" t="s">
+      <c r="C71" s="57"/>
+      <c r="D71" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="72" spans="3:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="24"/>
-      <c r="D73" s="34" t="s">
+      <c r="C73" s="46"/>
+      <c r="D73" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="53" t="s">
+      <c r="E73" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="24"/>
-      <c r="D74" s="53" t="s">
+      <c r="C74" s="46"/>
+      <c r="D74" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="E74" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="75" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="24"/>
-      <c r="D75" s="34" t="s">
+      <c r="C75" s="46"/>
+      <c r="D75" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E75" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="24"/>
-      <c r="D76" s="34" t="s">
+      <c r="C76" s="46"/>
+      <c r="D76" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="24"/>
-      <c r="D77" s="53" t="s">
+      <c r="C77" s="46"/>
+      <c r="D77" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="53" t="s">
+      <c r="E77" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="24"/>
-      <c r="D78" s="34" t="s">
+      <c r="C78" s="46"/>
+      <c r="D78" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="24"/>
-      <c r="D79" s="34" t="s">
+      <c r="C79" s="46"/>
+      <c r="D79" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E79" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="24"/>
-      <c r="D80" s="34" t="s">
+      <c r="C80" s="46"/>
+      <c r="D80" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="53" t="s">
+      <c r="E80" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="24"/>
-      <c r="D81" s="34" t="s">
+      <c r="C81" s="46"/>
+      <c r="D81" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="53" t="s">
+      <c r="E81" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="24"/>
-      <c r="D82" s="34" t="s">
+      <c r="C82" s="46"/>
+      <c r="D82" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="24"/>
-      <c r="D83" s="34" t="s">
+      <c r="C83" s="46"/>
+      <c r="D83" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="53" t="s">
+      <c r="E83" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="84" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="24"/>
-      <c r="D84" s="34" t="s">
+      <c r="C84" s="46"/>
+      <c r="D84" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="53" t="s">
+      <c r="E84" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="24"/>
-      <c r="D85" s="34" t="s">
+      <c r="C85" s="46"/>
+      <c r="D85" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="53" t="s">
+      <c r="E85" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="24"/>
-      <c r="D86" s="34" t="s">
+      <c r="C86" s="46"/>
+      <c r="D86" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="53" t="s">
+      <c r="E86" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="87" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="24"/>
-      <c r="D87" s="34" t="s">
+      <c r="C87" s="46"/>
+      <c r="D87" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E87" s="53" t="s">
+      <c r="E87" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="24"/>
-      <c r="D88" s="34" t="s">
+      <c r="C88" s="46"/>
+      <c r="D88" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="53" t="s">
+      <c r="E88" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="24"/>
-      <c r="D89" s="34" t="s">
+      <c r="C89" s="46"/>
+      <c r="D89" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="53" t="s">
+      <c r="E89" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="24"/>
-      <c r="D90" s="34" t="s">
+      <c r="C90" s="46"/>
+      <c r="D90" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="53" t="s">
+      <c r="E90" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="24"/>
-      <c r="D91" s="34" t="s">
+      <c r="C91" s="46"/>
+      <c r="D91" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E91" s="53" t="s">
+      <c r="E91" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="24"/>
-      <c r="D92" s="34" t="s">
+      <c r="C92" s="46"/>
+      <c r="D92" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="53" t="s">
+      <c r="E92" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="93" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E93" s="55" t="s">
+      <c r="E93" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="54"/>
-      <c r="D94" s="30" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="55" t="s">
+      <c r="E94" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="54"/>
-      <c r="D95" s="30" t="s">
+      <c r="C95" s="47"/>
+      <c r="D95" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="55" t="s">
+      <c r="E95" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="54"/>
-      <c r="D96" s="30" t="s">
+      <c r="C96" s="47"/>
+      <c r="D96" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E96" s="55" t="s">
+      <c r="E96" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="33" t="s">
+      <c r="D97" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E97" s="27" t="s">
+      <c r="E97" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="56"/>
-      <c r="D98" s="33" t="s">
+      <c r="C98" s="51"/>
+      <c r="D98" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E98" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="56"/>
-      <c r="D99" s="33" t="s">
+      <c r="C99" s="51"/>
+      <c r="D99" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="56"/>
-      <c r="D100" s="64" t="s">
+      <c r="C100" s="51"/>
+      <c r="D100" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="57" t="s">
+      <c r="E100" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="56"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="57"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="50"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="56"/>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="51"/>
+      <c r="D102" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="E102" s="57" t="s">
+      <c r="E102" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="56"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="57"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="50"/>
     </row>
     <row r="104" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="56"/>
-      <c r="D104" s="33" t="s">
+      <c r="C104" s="51"/>
+      <c r="D104" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E104" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="56"/>
-      <c r="D105" s="33" t="s">
+      <c r="C105" s="51"/>
+      <c r="D105" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="27" t="s">
+      <c r="E105" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="66" t="s">
+      <c r="D106" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="59" t="s">
+      <c r="E106" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="58"/>
-      <c r="D107" s="66" t="s">
+      <c r="C107" s="42"/>
+      <c r="D107" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="58"/>
-      <c r="D108" s="66" t="s">
+      <c r="C108" s="42"/>
+      <c r="D108" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="58"/>
-      <c r="D109" s="66" t="s">
+      <c r="C109" s="42"/>
+      <c r="D109" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="58"/>
-      <c r="D110" s="66" t="s">
+      <c r="C110" s="42"/>
+      <c r="D110" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E110" s="59" t="s">
+      <c r="E110" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="111" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="60" t="s">
+      <c r="C111" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D111" s="31" t="s">
+      <c r="D111" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E111" s="61" t="s">
+      <c r="E111" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="60"/>
-      <c r="D112" s="31" t="s">
+      <c r="C112" s="43"/>
+      <c r="D112" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E112" s="61" t="s">
+      <c r="E112" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="60"/>
-      <c r="D113" s="31" t="s">
+      <c r="C113" s="43"/>
+      <c r="D113" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E113" s="61" t="s">
+      <c r="E113" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C114" s="60"/>
-      <c r="D114" s="31" t="s">
+      <c r="C114" s="43"/>
+      <c r="D114" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E114" s="61" t="s">
+      <c r="E114" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="115" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="60"/>
-      <c r="D115" s="31" t="s">
+      <c r="C115" s="43"/>
+      <c r="D115" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E115" s="61" t="s">
+      <c r="E115" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="116" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="60"/>
-      <c r="D116" s="31" t="s">
+      <c r="C116" s="43"/>
+      <c r="D116" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E116" s="61" t="s">
+      <c r="E116" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="117" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="D117" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E117" s="53" t="s">
+      <c r="E117" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C118" s="5"/>
-      <c r="D118" s="34" t="s">
+      <c r="C118" s="44"/>
+      <c r="D118" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="53" t="s">
+      <c r="E118" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="5"/>
-      <c r="D119" s="34" t="s">
+      <c r="C119" s="44"/>
+      <c r="D119" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E119" s="53" t="s">
+      <c r="E119" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="5"/>
-      <c r="D120" s="34" t="s">
+      <c r="C120" s="44"/>
+      <c r="D120" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E120" s="53" t="s">
+      <c r="E120" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="121" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="5"/>
-      <c r="D121" s="34" t="s">
+      <c r="C121" s="44"/>
+      <c r="D121" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="5"/>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="44"/>
+      <c r="D122" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E122" s="53" t="s">
+      <c r="E122" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="123" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="5"/>
-      <c r="D123" s="34" t="s">
+      <c r="C123" s="44"/>
+      <c r="D123" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E123" s="53" t="s">
+      <c r="E123" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C124" s="5"/>
-      <c r="D124" s="34" t="s">
+      <c r="C124" s="44"/>
+      <c r="D124" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E124" s="53" t="s">
+      <c r="E124" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="125" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="5"/>
-      <c r="D125" s="34" t="s">
+      <c r="C125" s="44"/>
+      <c r="D125" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E125" s="53" t="s">
+      <c r="E125" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="126" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="5"/>
-      <c r="D126" s="34" t="s">
+      <c r="C126" s="44"/>
+      <c r="D126" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E126" s="53" t="s">
+      <c r="E126" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="127" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="5"/>
-      <c r="D127" s="34" t="s">
+      <c r="C127" s="44"/>
+      <c r="D127" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E127" s="53" t="s">
+      <c r="E127" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="128" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="5"/>
-      <c r="D128" s="34" t="s">
+      <c r="C128" s="44"/>
+      <c r="D128" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E128" s="53" t="s">
+      <c r="E128" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="129" spans="3:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="5"/>
-      <c r="D129" s="34" t="s">
+      <c r="C129" s="44"/>
+      <c r="D129" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="53" t="s">
+      <c r="E129" s="35" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C130" s="5"/>
-      <c r="D130" s="34" t="s">
+      <c r="C130" s="44"/>
+      <c r="D130" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E130" s="53" t="s">
+      <c r="E130" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="131" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="5"/>
-      <c r="D131" s="34" t="s">
+      <c r="C131" s="44"/>
+      <c r="D131" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E131" s="53" t="s">
+      <c r="E131" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="5"/>
-      <c r="D132" s="34" t="s">
+      <c r="C132" s="44"/>
+      <c r="D132" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E132" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="133" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="5"/>
-      <c r="D133" s="34" t="s">
+      <c r="C133" s="44"/>
+      <c r="D133" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E133" s="53" t="s">
+      <c r="E133" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C134" s="5"/>
-      <c r="D134" s="34" t="s">
+      <c r="C134" s="44"/>
+      <c r="D134" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E134" s="53" t="s">
+      <c r="E134" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="135" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="5"/>
-      <c r="D135" s="34" t="s">
+      <c r="C135" s="44"/>
+      <c r="D135" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E135" s="53" t="s">
+      <c r="E135" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C136" s="5"/>
-      <c r="D136" s="34" t="s">
+      <c r="C136" s="44"/>
+      <c r="D136" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E136" s="53" t="s">
+      <c r="E136" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="137" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="5"/>
-      <c r="D137" s="34" t="s">
+      <c r="C137" s="44"/>
+      <c r="D137" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E137" s="53" t="s">
+      <c r="E137" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="138" spans="3:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="5"/>
-      <c r="D138" s="34" t="s">
+      <c r="C138" s="44"/>
+      <c r="D138" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E138" s="53" t="s">
+      <c r="E138" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="139" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="5"/>
-      <c r="D139" s="34" t="s">
+      <c r="C139" s="44"/>
+      <c r="D139" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E139" s="53" t="s">
+      <c r="E139" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="5"/>
-      <c r="D140" s="34" t="s">
+      <c r="C140" s="44"/>
+      <c r="D140" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E140" s="53" t="s">
+      <c r="E140" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="141" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="5"/>
-      <c r="D141" s="53" t="s">
+      <c r="C141" s="44"/>
+      <c r="D141" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E141" s="53" t="s">
+      <c r="E141" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="5"/>
-      <c r="D142" s="34" t="s">
+      <c r="C142" s="44"/>
+      <c r="D142" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E142" s="53" t="s">
+      <c r="E142" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="5"/>
-      <c r="D143" s="34" t="s">
+      <c r="C143" s="44"/>
+      <c r="D143" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E143" s="53" t="s">
+      <c r="E143" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="144" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="5"/>
-      <c r="D144" s="34" t="s">
+      <c r="C144" s="44"/>
+      <c r="D144" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E144" s="53" t="s">
+      <c r="E144" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="5"/>
-      <c r="D145" s="34" t="s">
+      <c r="C145" s="44"/>
+      <c r="D145" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E145" s="53" t="s">
+      <c r="E145" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="146" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="5"/>
-      <c r="D146" s="34" t="s">
+      <c r="C146" s="44"/>
+      <c r="D146" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E146" s="53" t="s">
+      <c r="E146" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C147" s="5"/>
-      <c r="D147" s="34" t="s">
+      <c r="C147" s="44"/>
+      <c r="D147" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E147" s="53" t="s">
+      <c r="E147" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="148" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="5"/>
-      <c r="D148" s="34" t="s">
+      <c r="C148" s="44"/>
+      <c r="D148" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E148" s="53" t="s">
+      <c r="E148" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="149" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D149" s="32" t="s">
+      <c r="D149" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E149" s="62" t="s">
+      <c r="E149" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="6"/>
-      <c r="D150" s="32" t="s">
+      <c r="C150" s="45"/>
+      <c r="D150" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E150" s="62" t="s">
+      <c r="E150" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="151" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="6"/>
-      <c r="D151" s="32" t="s">
+      <c r="C151" s="45"/>
+      <c r="D151" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E151" s="62" t="s">
+      <c r="E151" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="152" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="6"/>
-      <c r="D152" s="32" t="s">
+      <c r="C152" s="45"/>
+      <c r="D152" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E152" s="62" t="s">
+      <c r="E152" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="6"/>
-      <c r="D153" s="32" t="s">
+      <c r="C153" s="45"/>
+      <c r="D153" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E153" s="62" t="s">
+      <c r="E153" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="6"/>
-      <c r="D154" s="32" t="s">
+      <c r="C154" s="45"/>
+      <c r="D154" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E154" s="62" t="s">
+      <c r="E154" s="39" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="155" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="6"/>
-      <c r="D155" s="32" t="s">
+      <c r="C155" s="45"/>
+      <c r="D155" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E155" s="62" t="s">
+      <c r="E155" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="156" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="6"/>
-      <c r="D156" s="32" t="s">
+      <c r="C156" s="45"/>
+      <c r="D156" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E156" s="62" t="s">
+      <c r="E156" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="157" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="6"/>
-      <c r="D157" s="32" t="s">
+      <c r="C157" s="45"/>
+      <c r="D157" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E157" s="62" t="s">
+      <c r="E157" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="6"/>
-      <c r="D158" s="32" t="s">
+      <c r="C158" s="45"/>
+      <c r="D158" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E158" s="62" t="s">
+      <c r="E158" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="159" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="6"/>
-      <c r="D159" s="32" t="s">
+      <c r="C159" s="45"/>
+      <c r="D159" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E159" s="62" t="s">
+      <c r="E159" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="160" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="6"/>
-      <c r="D160" s="32" t="s">
+      <c r="C160" s="45"/>
+      <c r="D160" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E160" s="62" t="s">
+      <c r="E160" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="161" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="6"/>
-      <c r="D161" s="32" t="s">
+      <c r="C161" s="45"/>
+      <c r="D161" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E161" s="62" t="s">
+      <c r="E161" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="162" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="6"/>
-      <c r="D162" s="32" t="s">
+      <c r="C162" s="45"/>
+      <c r="D162" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E162" s="62" t="s">
+      <c r="E162" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="163" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="6"/>
-      <c r="D163" s="32" t="s">
+      <c r="C163" s="45"/>
+      <c r="D163" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E163" s="62" t="s">
+      <c r="E163" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="164" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="6"/>
-      <c r="D164" s="32" t="s">
+      <c r="C164" s="45"/>
+      <c r="D164" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E164" s="62" t="s">
+      <c r="E164" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="6"/>
-      <c r="D165" s="32" t="s">
+      <c r="C165" s="45"/>
+      <c r="D165" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E165" s="62" t="s">
+      <c r="E165" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="166" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="6"/>
-      <c r="D166" s="32" t="s">
+      <c r="C166" s="45"/>
+      <c r="D166" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E166" s="62" t="s">
+      <c r="E166" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" s="6"/>
-      <c r="D167" s="32" t="s">
+      <c r="C167" s="45"/>
+      <c r="D167" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E167" s="62" t="s">
+      <c r="E167" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="168" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="6"/>
-      <c r="D168" s="62" t="s">
+      <c r="C168" s="45"/>
+      <c r="D168" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E168" s="62" t="s">
+      <c r="E168" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="169" spans="3:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="6"/>
-      <c r="D169" s="32" t="s">
+      <c r="C169" s="45"/>
+      <c r="D169" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E169" s="62" t="s">
+      <c r="E169" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="170" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="6"/>
-      <c r="D170" s="32" t="s">
+      <c r="C170" s="45"/>
+      <c r="D170" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E170" s="62" t="s">
+      <c r="E170" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="171" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="6"/>
-      <c r="D171" s="32" t="s">
+      <c r="C171" s="45"/>
+      <c r="D171" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E171" s="62" t="s">
+      <c r="E171" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="172" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="6"/>
-      <c r="D172" s="32" t="s">
+      <c r="C172" s="45"/>
+      <c r="D172" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E172" s="62" t="s">
+      <c r="E172" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="6"/>
-      <c r="D173" s="32" t="s">
+      <c r="C173" s="45"/>
+      <c r="D173" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E173" s="62" t="s">
+      <c r="E173" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="174" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="6"/>
-      <c r="D174" s="32" t="s">
+      <c r="C174" s="45"/>
+      <c r="D174" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E174" s="62" t="s">
+      <c r="E174" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" s="6"/>
-      <c r="D175" s="32" t="s">
+      <c r="C175" s="45"/>
+      <c r="D175" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E175" s="62" t="s">
-        <v>6</v>
+      <c r="E175" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="68"/>
+      <c r="D177" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E177" s="71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="68"/>
+      <c r="D178" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E178" s="71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="68"/>
+      <c r="D179" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E179" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="68"/>
+      <c r="D180" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="68"/>
+      <c r="D181" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E181" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="68"/>
+      <c r="D182" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="E182" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="68"/>
+      <c r="D183" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E183" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="69"/>
+      <c r="D184" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E184" s="71" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="C111:C116"/>
-    <mergeCell ref="C117:C148"/>
-    <mergeCell ref="C149:C175"/>
-    <mergeCell ref="C72:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="C97:C105"/>
+  <mergeCells count="25">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C176:C184"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C39:C54"/>
     <mergeCell ref="C55:C71"/>
@@ -2765,10 +2872,17 @@
     <mergeCell ref="C28:C35"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="C97:C105"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="C111:C116"/>
+    <mergeCell ref="C117:C148"/>
+    <mergeCell ref="C149:C175"/>
+    <mergeCell ref="C72:C92"/>
+    <mergeCell ref="C93:C96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
